--- a/Benchmark.xlsx
+++ b/Benchmark.xlsx
@@ -8,27 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arnaud\workplace-accidents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36374DA-86DA-4773-BFB2-0C9DAFF5D866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444CECB6-CA6F-4505-B556-C55E946812C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26325" yWindow="3165" windowWidth="24195" windowHeight="17715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29010" yWindow="915" windowWidth="22140" windowHeight="17715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$2:$M$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="135">
   <si>
     <t>Numero_dossier</t>
   </si>
@@ -166,13 +175,280 @@
   </si>
   <si>
     <t>suicide</t>
+  </si>
+  <si>
+    <t>Human Verification</t>
+  </si>
+  <si>
+    <t>accident de la route</t>
+  </si>
+  <si>
+    <t>choc</t>
+  </si>
+  <si>
+    <t>Camion</t>
+  </si>
+  <si>
+    <t>cariste</t>
+  </si>
+  <si>
+    <t>Fracture ouverte</t>
+  </si>
+  <si>
+    <t>pont</t>
+  </si>
+  <si>
+    <t>mauvaise sécurisation</t>
+  </si>
+  <si>
+    <t>jambe</t>
+  </si>
+  <si>
+    <t>ingénieur</t>
+  </si>
+  <si>
+    <t>Accident de la route</t>
+  </si>
+  <si>
+    <t>technicien chimiste</t>
+  </si>
+  <si>
+    <t>explosion</t>
+  </si>
+  <si>
+    <t>Brulure par les flammes</t>
+  </si>
+  <si>
+    <t>Réacteur</t>
+  </si>
+  <si>
+    <t>explosion chimique</t>
+  </si>
+  <si>
+    <t>cariste magasinier</t>
+  </si>
+  <si>
+    <t>visage, torse, bras</t>
+  </si>
+  <si>
+    <t>choc, acide</t>
+  </si>
+  <si>
+    <t>choc et brûlure chimique</t>
+  </si>
+  <si>
+    <t>tuyau, conteneur</t>
+  </si>
+  <si>
+    <t>tuyau forcé dans orifice</t>
+  </si>
+  <si>
+    <t>manutentionnaire</t>
+  </si>
+  <si>
+    <t>broyeur de viande</t>
+  </si>
+  <si>
+    <t>fils de la grille se sont dessoudés, retrat du grillage</t>
+  </si>
+  <si>
+    <t>happement du pied dans machine industrielle</t>
+  </si>
+  <si>
+    <t>femme de ménage</t>
+  </si>
+  <si>
+    <t>torse</t>
+  </si>
+  <si>
+    <t>conteneur</t>
+  </si>
+  <si>
+    <t>basculement du conteneur dans le monte-charge</t>
+  </si>
+  <si>
+    <t>écrasement du thorax</t>
+  </si>
+  <si>
+    <t>chaudronnier</t>
+  </si>
+  <si>
+    <t>non consignation de la vanne</t>
+  </si>
+  <si>
+    <t>bras, torse, visage</t>
+  </si>
+  <si>
+    <t>brulure par la vapeur</t>
+  </si>
+  <si>
+    <t>brulure vapeur</t>
+  </si>
+  <si>
+    <t>fermenteur</t>
+  </si>
+  <si>
+    <t>coordinateur technique</t>
+  </si>
+  <si>
+    <t>tracteur, moto</t>
+  </si>
+  <si>
+    <t>non respect du mode opératoire</t>
+  </si>
+  <si>
+    <t>ensacheuse</t>
+  </si>
+  <si>
+    <t>contremaître</t>
+  </si>
+  <si>
+    <t>doigt sectionné</t>
+  </si>
+  <si>
+    <t>machine de façonnage</t>
+  </si>
+  <si>
+    <t>rechargement de la machine</t>
+  </si>
+  <si>
+    <t>agent commercial</t>
+  </si>
+  <si>
+    <t>mécanicien</t>
+  </si>
+  <si>
+    <t>visage</t>
+  </si>
+  <si>
+    <t>explosition du roulement</t>
+  </si>
+  <si>
+    <t>presse hydraulique</t>
+  </si>
+  <si>
+    <t>plaie à l'œil droit</t>
+  </si>
+  <si>
+    <t>opérateur de production</t>
+  </si>
+  <si>
+    <t>élévateur de godet</t>
+  </si>
+  <si>
+    <t>directeur logistique</t>
+  </si>
+  <si>
+    <t>Malaise cardiaque</t>
+  </si>
+  <si>
+    <t>séchoir</t>
+  </si>
+  <si>
+    <t>agent de production</t>
+  </si>
+  <si>
+    <t>contact de sécurité, mauvais montage</t>
+  </si>
+  <si>
+    <t>section de 2 doigts</t>
+  </si>
+  <si>
+    <t>sectionnement des doigts</t>
+  </si>
+  <si>
+    <t>mauvaise accroche</t>
+  </si>
+  <si>
+    <t>chariot, plaque de béton</t>
+  </si>
+  <si>
+    <t>écrasement par objet</t>
+  </si>
+  <si>
+    <t>Mistral</t>
+  </si>
+  <si>
+    <t>technicien de laboratoire</t>
+  </si>
+  <si>
+    <t>section de la main</t>
+  </si>
+  <si>
+    <t>happement par une machine</t>
+  </si>
+  <si>
+    <t>chute de la boite dans une machine</t>
+  </si>
+  <si>
+    <t>convoyeur</t>
+  </si>
+  <si>
+    <t>conductrice de ligne</t>
+  </si>
+  <si>
+    <t>fracture, luxation bras</t>
+  </si>
+  <si>
+    <t>étiquette collée</t>
+  </si>
+  <si>
+    <t>granuleur</t>
+  </si>
+  <si>
+    <t>coactivité</t>
+  </si>
+  <si>
+    <t>cuve mélangeur</t>
+  </si>
+  <si>
+    <t>écrasement par rotor</t>
+  </si>
+  <si>
+    <t>technicienne de laboratoire</t>
+  </si>
+  <si>
+    <t>explosion flacon</t>
+  </si>
+  <si>
+    <t>explosion, projection de verre au visage</t>
+  </si>
+  <si>
+    <t>opératrice de production</t>
+  </si>
+  <si>
+    <t>happement dans une machine</t>
+  </si>
+  <si>
+    <t>émotteur</t>
+  </si>
+  <si>
+    <t>nettoyage</t>
+  </si>
+  <si>
+    <t>magasinier</t>
+  </si>
+  <si>
+    <t>mélangeur</t>
+  </si>
+  <si>
+    <t>explosion, projection de particules en flamme</t>
+  </si>
+  <si>
+    <t>blocage évacuation</t>
+  </si>
+  <si>
+    <t>cuve</t>
+  </si>
+  <si>
+    <t>asphyxie</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,18 +457,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Verdana"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -207,14 +510,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -498,442 +829,1719 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9.140625" style="7"/>
+    <col min="14" max="25" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M2" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>8673</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D2">
+      <c r="D3" s="7">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="G3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M3" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="N3" s="3"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="2"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>8452</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D3">
+      <c r="D4" s="7">
         <v>49</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="I4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M4" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>22537</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D4">
+      <c r="D5" s="7">
         <v>50</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="G5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M5" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>8210</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D5">
+      <c r="D6" s="7">
         <v>55</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="H6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="J6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M6" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>10054</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D6">
+      <c r="D7" s="7">
         <v>25</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="G7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M7" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>23424</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D7">
+      <c r="D8" s="7">
         <v>45</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="H8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M8" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>11937</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="B9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="7">
+        <v>28</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>13348</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="B10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="7">
+        <v>60</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>9053</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="B11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="7">
+        <v>44</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>14301</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="B12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="7">
+        <v>31</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>10255</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="B13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="7">
+        <v>28</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>13890</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="B14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="7">
+        <v>22</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>6921</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="B15" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="7">
+        <v>55</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>23842</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="B16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="7">
+        <v>25</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>18847</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="B17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="7">
+        <v>45</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>14756</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="B18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="7">
+        <v>43</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>17060</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="B19" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="7">
+        <v>51</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>11973</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="B20" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="7">
+        <v>24</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>7110</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="B21" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="7">
+        <v>42</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>22900</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="B22" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="7">
+        <v>54</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>10261</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="B23" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="7">
+        <v>35</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>18423</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="B24" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="7">
+        <v>51</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>9210</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="B25" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="7">
+        <v>36</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>19675</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="B26" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="7">
+        <v>57</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>17200</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="B27" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="7">
+        <v>43</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>16134</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="B28" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="7">
+        <v>33</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>16335</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="B29" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="7">
+        <v>30</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>3774</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="B30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="7">
+        <v>21</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>14479</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="B31" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="7">
+        <v>30</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>11297</v>
       </c>
+      <c r="B32" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="7">
+        <v>31</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="B2:M31">
+  <autoFilter ref="A2:M2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="2">
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="N1:Y1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B3:M32">
+    <cfRule type="containsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(B3))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3:Y32">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(B2))=0</formula>
+      <formula>LEN(TRIM(N3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:J31" xr:uid="{3E9A4322-8F55-46E3-96EB-6370622C197A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:J32 S3:V32" xr:uid="{3E9A4322-8F55-46E3-96EB-6370622C197A}">
       <formula1>"True,False,NA"</formula1>
     </dataValidation>
   </dataValidations>
